--- a/docs/shrcore/shr-core-Procedure.xlsx
+++ b/docs/shrcore/shr-core-Procedure.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="402">
   <si>
     <t>Path</t>
   </si>
@@ -482,6 +482,26 @@
     <t>The point in time when the statement was created.</t>
   </si>
   <si>
+    <t>personauthor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PersonAuthor-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A human author, patient, practitioner, or related person, as opposed to an organization or device.</t>
+  </si>
+  <si>
+    <t>personinformationsource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PersonInformationSource-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The person who provided the information, not necessarily the patient.</t>
+  </si>
+  <si>
     <t>treatmentintent</t>
   </si>
   <si>
@@ -747,7 +767,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
 </t>
   </si>
   <si>
@@ -1138,7 +1158,7 @@
     <t>Procedure.complicationDetail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition]]}
 </t>
   </si>
   <si>
@@ -1430,7 +1450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN65"/>
+  <dimension ref="A1:AM67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1440,7 +1460,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.01171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.3984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -3674,40 +3694,38 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K21" t="s" s="2">
         <v>152</v>
       </c>
+      <c r="K21" s="2"/>
       <c r="L21" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3756,7 +3774,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3774,7 +3792,7 @@
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3785,9 +3803,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3796,7 +3816,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
@@ -3805,21 +3825,17 @@
         <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3867,7 +3883,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3885,22 +3901,22 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3913,21 +3929,23 @@
         <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3976,7 +3994,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3994,7 +4012,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -4005,18 +4023,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>40</v>
@@ -4028,16 +4046,18 @@
         <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
@@ -4085,7 +4105,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4103,29 +4123,29 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
@@ -4137,17 +4157,15 @@
         <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4196,7 +4214,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4214,7 +4232,7 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -4223,42 +4241,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4283,11 +4299,13 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X26" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y26" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -4305,13 +4323,13 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
@@ -4320,13 +4338,13 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
@@ -4334,43 +4352,43 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
@@ -4416,13 +4434,13 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -4434,7 +4452,7 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -4443,9 +4461,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4453,30 +4471,32 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4501,13 +4521,11 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4525,28 +4543,28 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>49</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
@@ -4554,7 +4572,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4565,30 +4583,32 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="K29" t="s" s="2">
-        <v>205</v>
-      </c>
       <c r="L29" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
@@ -4610,13 +4630,13 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
@@ -4634,7 +4654,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4652,32 +4672,32 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>40</v>
@@ -4686,18 +4706,16 @@
         <v>50</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4721,13 +4739,13 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>40</v>
@@ -4745,7 +4763,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4754,41 +4772,41 @@
         <v>49</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>220</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>40</v>
@@ -4797,13 +4815,13 @@
         <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4830,13 +4848,13 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>40</v>
@@ -4854,10 +4872,10 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>49</v>
@@ -4869,35 +4887,35 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>40</v>
@@ -4906,16 +4924,18 @@
         <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4939,13 +4959,13 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
@@ -4963,7 +4983,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4978,25 +4998,25 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5015,13 +5035,13 @@
         <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5072,10 +5092,10 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>49</v>
@@ -5087,32 +5107,32 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -5124,13 +5144,13 @@
         <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5181,36 +5201,36 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>40</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5218,28 +5238,28 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>62</v>
+        <v>244</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>63</v>
+        <v>245</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>64</v>
+        <v>246</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5290,7 +5310,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>65</v>
+        <v>243</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5305,25 +5325,25 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>66</v>
+        <v>247</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>40</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5339,20 +5359,18 @@
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>69</v>
+        <v>251</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>70</v>
+        <v>252</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5401,7 +5419,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5413,13 +5431,13 @@
         <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>66</v>
+        <v>255</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
@@ -5430,40 +5448,38 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5512,13 +5528,13 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>255</v>
+        <v>65</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
@@ -5530,7 +5546,7 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
@@ -5541,18 +5557,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>40</v>
@@ -5561,18 +5577,20 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>257</v>
+        <v>70</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5597,13 +5615,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5621,13 +5639,13 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
@@ -5639,52 +5657,52 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>261</v>
+        <v>66</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>262</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>264</v>
+        <v>69</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>265</v>
+        <v>158</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5732,13 +5750,13 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
@@ -5750,18 +5768,18 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>268</v>
+        <v>138</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>269</v>
+        <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>270</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5781,21 +5799,19 @@
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5819,13 +5835,13 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
@@ -5843,7 +5859,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5861,18 +5877,18 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>40</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5880,7 +5896,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>49</v>
@@ -5895,17 +5911,17 @@
         <v>50</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5954,10 +5970,10 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>49</v>
@@ -5972,18 +5988,18 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>40</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6003,19 +6019,21 @@
         <v>40</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6039,13 +6057,13 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>287</v>
+        <v>40</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
@@ -6063,13 +6081,13 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>40</v>
@@ -6081,10 +6099,10 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -6092,7 +6110,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6115,18 +6133,18 @@
         <v>50</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6174,13 +6192,13 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
@@ -6192,10 +6210,10 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -6203,7 +6221,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6214,7 +6232,7 @@
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -6226,13 +6244,13 @@
         <v>50</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6259,11 +6277,13 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>40</v>
@@ -6281,7 +6301,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6299,18 +6319,18 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>40</v>
+        <v>296</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>302</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6330,18 +6350,20 @@
         <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>62</v>
+        <v>298</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>63</v>
+        <v>299</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6390,13 +6412,13 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>65</v>
+        <v>297</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
@@ -6408,10 +6430,10 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>66</v>
+        <v>295</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>40</v>
+        <v>296</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6419,11 +6441,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6439,20 +6461,18 @@
         <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>70</v>
+        <v>303</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6477,31 +6497,29 @@
         <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>40</v>
+        <v>306</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6519,22 +6537,20 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>66</v>
+        <v>307</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>40</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6543,7 +6559,7 @@
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>40</v>
@@ -6555,11 +6571,13 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="K47" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>63</v>
+      </c>
       <c r="L47" t="s" s="2">
-        <v>307</v>
+        <v>64</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6610,13 +6628,13 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>40</v>
@@ -6628,7 +6646,7 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -6639,13 +6657,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6664,13 +6680,17 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="K48" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="L48" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6707,16 +6727,16 @@
         <v>40</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>76</v>
@@ -6737,7 +6757,7 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -6748,7 +6768,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>311</v>
@@ -6857,9 +6877,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6877,23 +6899,17 @@
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K50" t="s" s="2">
         <v>315</v>
       </c>
+      <c r="K50" s="2"/>
       <c r="L50" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>318</v>
-      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6940,11 +6956,15 @@
       <c r="AD50" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE50" s="2"/>
+      <c r="AE50" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG50" s="2"/>
+      <c r="AG50" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6955,20 +6975,22 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>319</v>
+        <v>40</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>320</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="C51" t="s" s="2">
         <v>40</v>
       </c>
@@ -6977,7 +6999,7 @@
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -6986,23 +7008,17 @@
         <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="K51" s="2"/>
       <c r="L51" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>40</v>
       </c>
@@ -7049,11 +7065,15 @@
       <c r="AD51" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE51" s="2"/>
+      <c r="AE51" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG51" s="2"/>
+      <c r="AG51" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
       </c>
@@ -7064,18 +7084,18 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>326</v>
+        <v>40</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>327</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7086,7 +7106,7 @@
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>40</v>
@@ -7098,18 +7118,20 @@
         <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>197</v>
+        <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7133,13 +7155,13 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>332</v>
+        <v>40</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>333</v>
+        <v>40</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>40</v>
@@ -7156,15 +7178,11 @@
       <c r="AD52" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE52" t="s" s="2">
-        <v>328</v>
-      </c>
+      <c r="AE52" s="2"/>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>49</v>
-      </c>
+      <c r="AG52" s="2"/>
       <c r="AH52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7175,18 +7193,18 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>40</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7197,7 +7215,7 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7206,21 +7224,23 @@
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>336</v>
+        <v>62</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7267,15 +7287,11 @@
       <c r="AD53" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE53" t="s" s="2">
-        <v>335</v>
-      </c>
+      <c r="AE53" s="2"/>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG53" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG53" s="2"/>
       <c r="AH53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7286,18 +7302,18 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>40</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7308,7 +7324,7 @@
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
@@ -7317,19 +7333,19 @@
         <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7358,10 +7374,10 @@
         <v>106</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
@@ -7379,13 +7395,13 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7397,7 +7413,7 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
@@ -7408,7 +7424,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7431,18 +7447,18 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7490,7 +7506,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7508,7 +7524,7 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
@@ -7519,7 +7535,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7542,15 +7558,17 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7578,10 +7596,10 @@
         <v>106</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -7599,7 +7617,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7617,7 +7635,7 @@
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
@@ -7628,7 +7646,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7651,16 +7669,18 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7708,7 +7728,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7726,18 +7746,18 @@
         <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>364</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7760,13 +7780,13 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7793,13 +7813,13 @@
         <v>40</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>40</v>
+        <v>362</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>40</v>
+        <v>363</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>40</v>
@@ -7817,7 +7837,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7829,13 +7849,13 @@
         <v>40</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -7846,7 +7866,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7857,7 +7877,7 @@
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>40</v>
@@ -7869,13 +7889,13 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>62</v>
+        <v>366</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>63</v>
+        <v>367</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>64</v>
+        <v>368</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7926,13 +7946,13 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>65</v>
+        <v>365</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>40</v>
@@ -7944,22 +7964,22 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>66</v>
+        <v>369</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>40</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -7978,17 +7998,15 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>69</v>
+        <v>251</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>70</v>
+        <v>372</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8037,7 +8055,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>76</v>
+        <v>371</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8049,13 +8067,13 @@
         <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>66</v>
+        <v>374</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
@@ -8066,40 +8084,38 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8148,13 +8164,13 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>255</v>
+        <v>65</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
@@ -8166,7 +8182,7 @@
         <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
@@ -8177,18 +8193,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>40</v>
@@ -8200,15 +8216,17 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>373</v>
+        <v>70</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8233,13 +8251,13 @@
         <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>375</v>
+        <v>40</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>376</v>
+        <v>40</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>40</v>
@@ -8257,13 +8275,13 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>372</v>
+        <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
@@ -8275,7 +8293,7 @@
         <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>377</v>
+        <v>66</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -8286,38 +8304,40 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>379</v>
+        <v>69</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>380</v>
+        <v>158</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8366,13 +8386,13 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>378</v>
+        <v>261</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
@@ -8384,7 +8404,7 @@
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>382</v>
+        <v>138</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -8395,7 +8415,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8406,7 +8426,7 @@
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>40</v>
@@ -8418,20 +8438,16 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>384</v>
+        <v>203</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
       </c>
@@ -8455,13 +8471,13 @@
         <v>40</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>40</v>
+        <v>381</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>40</v>
+        <v>382</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>40</v>
@@ -8479,25 +8495,25 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
@@ -8508,7 +8524,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8516,10 +8532,10 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>40</v>
@@ -8531,17 +8547,15 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>197</v>
+        <v>385</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M65" t="s" s="2">
         <v>387</v>
       </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8566,59 +8580,283 @@
         <v>40</v>
       </c>
       <c r="W65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W67" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="X65" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG65" t="s" s="2">
+      <c r="X67" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG67" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AH65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AH67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM65">
+  <autoFilter ref="A1:AM67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8628,7 +8866,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI64">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
